--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB5BADA-6383-4FE7-A023-8D188DA62A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{394A7EE1-BF8E-4EC7-9CF4-0EA4A25F03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{933DD904-7328-4714-B06B-7F476B7E6133}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB360587-9CD3-485A-A151-BC312DDDD812}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFDA8FF-8DC5-4871-96AD-298926C4F3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A89B61-5F35-4EDB-99C8-91B6A33DD2B7}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9097FDA-E6C5-4E68-820F-E281AA7D03FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC490F3-54FD-4BB9-9A18-6D912BD3E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1BFC2FA0-D503-42CE-A2B7-CD0E873868BB}"/>
+    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{1BFC2FA0-D503-42CE-A2B7-CD0E873868BB}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>資訊學院</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>7A0 資訊學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>7A0 資訊學院</t>
   </si>
   <si>
     <t>703 資訊科學系</t>
@@ -449,19 +446,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -469,14 +463,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -484,7 +478,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19E6-4513-AA0F-D7E4A53BFEF6}"/>
+              <c16:uniqueId val="{00000000-3E99-4045-8A39-F94EDDC7A10B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -519,19 +513,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -539,14 +530,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,7 +545,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-19E6-4513-AA0F-D7E4A53BFEF6}"/>
+              <c16:uniqueId val="{00000001-3E99-4045-8A39-F94EDDC7A10B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -589,19 +580,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -609,14 +597,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -624,7 +612,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-19E6-4513-AA0F-D7E4A53BFEF6}"/>
+              <c16:uniqueId val="{00000002-3E99-4045-8A39-F94EDDC7A10B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -735,7 +723,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-19E6-4513-AA0F-D7E4A53BFEF6}"/>
+                  <c16:uniqueId val="{00000003-3E99-4045-8A39-F94EDDC7A10B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -807,19 +795,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -827,14 +812,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -843,7 +828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-19E6-4513-AA0F-D7E4A53BFEF6}"/>
+              <c16:uniqueId val="{00000004-3E99-4045-8A39-F94EDDC7A10B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,19 +1109,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1144,14 +1126,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1159,7 +1141,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7E1-4496-A22C-7C82C773BD3B}"/>
+              <c16:uniqueId val="{00000000-6BCE-4A4D-8D2A-870842204A8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,19 +1176,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1214,14 +1193,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1229,7 +1208,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7E1-4496-A22C-7C82C773BD3B}"/>
+              <c16:uniqueId val="{00000001-6BCE-4A4D-8D2A-870842204A8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1264,19 +1243,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1284,14 +1260,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1299,7 +1275,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A7E1-4496-A22C-7C82C773BD3B}"/>
+              <c16:uniqueId val="{00000002-6BCE-4A4D-8D2A-870842204A8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,7 +1386,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A7E1-4496-A22C-7C82C773BD3B}"/>
+                  <c16:uniqueId val="{00000003-6BCE-4A4D-8D2A-870842204A8E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1482,19 +1458,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,14 +1475,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1518,7 +1491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A7E1-4496-A22C-7C82C773BD3B}"/>
+              <c16:uniqueId val="{00000004-6BCE-4A4D-8D2A-870842204A8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1799,19 +1772,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1819,14 +1789,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1834,7 +1804,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2B1-4D72-B48D-BFFB36AD5B09}"/>
+              <c16:uniqueId val="{00000000-BA55-42F2-B6CC-4D70236B2927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1869,19 +1839,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1889,14 +1856,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1904,7 +1871,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2B1-4D72-B48D-BFFB36AD5B09}"/>
+              <c16:uniqueId val="{00000001-BA55-42F2-B6CC-4D70236B2927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,19 +1906,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -1959,14 +1923,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1974,7 +1938,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A2B1-4D72-B48D-BFFB36AD5B09}"/>
+              <c16:uniqueId val="{00000002-BA55-42F2-B6CC-4D70236B2927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2085,7 +2049,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A2B1-4D72-B48D-BFFB36AD5B09}"/>
+                  <c16:uniqueId val="{00000003-BA55-42F2-B6CC-4D70236B2927}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2157,19 +2121,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2177,14 +2138,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2193,7 +2154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A2B1-4D72-B48D-BFFB36AD5B09}"/>
+              <c16:uniqueId val="{00000004-BA55-42F2-B6CC-4D70236B2927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2474,19 +2435,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2494,14 +2452,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2509,7 +2467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D75-4723-9A63-4092B318DAD2}"/>
+              <c16:uniqueId val="{00000000-2FEC-4574-AEA8-8F452563AAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2544,19 +2502,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2564,14 +2519,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2579,7 +2534,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D75-4723-9A63-4092B318DAD2}"/>
+              <c16:uniqueId val="{00000001-2FEC-4574-AEA8-8F452563AAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2614,19 +2569,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2634,14 +2586,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2649,7 +2601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D75-4723-9A63-4092B318DAD2}"/>
+              <c16:uniqueId val="{00000002-2FEC-4574-AEA8-8F452563AAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2760,7 +2712,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6D75-4723-9A63-4092B318DAD2}"/>
+                  <c16:uniqueId val="{00000003-2FEC-4574-AEA8-8F452563AAD7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2832,19 +2784,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -2852,14 +2801,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2868,7 +2817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6D75-4723-9A63-4092B318DAD2}"/>
+              <c16:uniqueId val="{00000004-2FEC-4574-AEA8-8F452563AAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3149,19 +3098,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3169,14 +3115,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3184,7 +3130,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0E0-49DB-9076-370E231BD2F6}"/>
+              <c16:uniqueId val="{00000000-1D3F-4B44-89C3-5C8435D48A8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,19 +3165,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3239,14 +3182,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3254,7 +3197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0E0-49DB-9076-370E231BD2F6}"/>
+              <c16:uniqueId val="{00000001-1D3F-4B44-89C3-5C8435D48A8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3289,19 +3232,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3309,14 +3249,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3324,7 +3264,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D0E0-49DB-9076-370E231BD2F6}"/>
+              <c16:uniqueId val="{00000002-1D3F-4B44-89C3-5C8435D48A8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3435,7 +3375,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D0E0-49DB-9076-370E231BD2F6}"/>
+                  <c16:uniqueId val="{00000003-1D3F-4B44-89C3-5C8435D48A8A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3507,19 +3447,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3527,14 +3464,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3543,7 +3480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D0E0-49DB-9076-370E231BD2F6}"/>
+              <c16:uniqueId val="{00000004-1D3F-4B44-89C3-5C8435D48A8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3824,19 +3761,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3844,14 +3778,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3859,7 +3793,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26E2-4303-9A9D-7D4FEAB9B942}"/>
+              <c16:uniqueId val="{00000000-AC77-4A96-B596-716724C0285B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3894,19 +3828,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3914,14 +3845,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3929,7 +3860,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-26E2-4303-9A9D-7D4FEAB9B942}"/>
+              <c16:uniqueId val="{00000001-AC77-4A96-B596-716724C0285B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3964,19 +3895,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -3984,14 +3912,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3999,7 +3927,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-26E2-4303-9A9D-7D4FEAB9B942}"/>
+              <c16:uniqueId val="{00000002-AC77-4A96-B596-716724C0285B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4110,7 +4038,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-26E2-4303-9A9D-7D4FEAB9B942}"/>
+                  <c16:uniqueId val="{00000003-AC77-4A96-B596-716724C0285B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4182,19 +4110,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4202,14 +4127,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4218,7 +4143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-26E2-4303-9A9D-7D4FEAB9B942}"/>
+              <c16:uniqueId val="{00000004-AC77-4A96-B596-716724C0285B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4499,19 +4424,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4519,14 +4441,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4534,7 +4456,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94B8-4EE1-B84B-BE6D864E3759}"/>
+              <c16:uniqueId val="{00000000-C722-4644-AB46-13D755099C21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4569,19 +4491,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4589,14 +4508,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4604,7 +4523,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94B8-4EE1-B84B-BE6D864E3759}"/>
+              <c16:uniqueId val="{00000001-C722-4644-AB46-13D755099C21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4639,19 +4558,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4659,14 +4575,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4674,7 +4590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-94B8-4EE1-B84B-BE6D864E3759}"/>
+              <c16:uniqueId val="{00000002-C722-4644-AB46-13D755099C21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4785,7 +4701,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-94B8-4EE1-B84B-BE6D864E3759}"/>
+                  <c16:uniqueId val="{00000003-C722-4644-AB46-13D755099C21}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4857,19 +4773,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>資訊學院</c:v>
+                  <c:v>資科系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
@@ -4877,14 +4790,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4893,7 +4806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-94B8-4EE1-B84B-BE6D864E3759}"/>
+              <c16:uniqueId val="{00000004-C722-4644-AB46-13D755099C21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5122,7 +5035,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCA3126-3946-4239-8049-DD3DD7C8426F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBDBAFC-782D-483F-994A-0026334440B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5068,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77943E24-1D00-4E7B-9D1F-CAD68FB38C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D667478-FD30-4DC7-A5FE-3DD5A25EE134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5101,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F476C25-E3B6-40D0-9E29-4C0D6664B48A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8D2E40-E7DD-4C11-9B02-2621FB78FCCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +5134,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43AE04A-BA3D-4879-A9EE-14E4C88DEB12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1B8B1F-D577-4BCB-BC8E-DDA72FAECBC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5167,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BB0140-8153-41D0-84E5-5288DDB27E25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788215B3-CC0B-4306-A9AA-E8C39089ADD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5287,7 +5200,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A64ADB-E4EB-4CE8-805C-15788A9378D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C9BFC2-1C7B-4754-B081-260DC8381462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5320,7 +5233,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B94EFF-9EBA-4777-B3A5-3A482DFF845C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB936844-0B82-4347-B812-02A77F26E7DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5283,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5387,7 +5300,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -5767,25 +5680,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{28C29628-4213-485C-8EB9-3051C66C1C47}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{C818B5B4-54CC-4242-931C-E49946D227D8}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{327C3163-8F0F-4603-90B5-90FE322120D2}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{CF396972-C92D-4E7C-9F19-8EE2C16C2C3D}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{A34165B8-6D73-4753-93BF-145CD3522967}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{0685D4AC-D71D-4792-B13D-46A62D4AEEA3}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{5AF1709C-1922-4122-8407-C2D521B40CA2}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{132F3BD7-E094-4CB4-AF1D-14CD2D33005F}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{A92964E3-9BE9-46CB-B85D-43680DFA8524}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5D026277-DEE6-4E01-9023-E5D1AC5C16A6}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{9A851883-DB00-42E9-9E0E-DEB5C5BC3F8F}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{A502642F-C7C9-448C-928E-856BF902C571}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{B8F315A8-A5C8-48CC-8B38-4DB797860F40}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{318E1B3E-CC63-49F9-8D91-0AE9079BA36F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438D6B0-6BBB-44FF-BF5D-81AE450D15FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA93C3F-AA55-408F-AE61-815BA14DE179}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5840,16 +5753,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5862,39 +5773,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C4" s="10">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D4" s="10">
         <v>0.04</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F4" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5905,12 +5805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE4251-15EB-4A9C-8B1C-072A2626C706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC605DED-2D6D-484C-907F-CFEFED3B0BED}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5965,16 +5865,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5987,39 +5885,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C4" s="10">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D4" s="10">
         <v>0.04</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F4" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6030,12 +5917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A559D751-C5BF-41E0-960D-32A87022DF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3730CF5F-AD66-40ED-A02F-382F170CE957}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6090,16 +5977,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6112,39 +5997,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C4" s="11">
         <v>0.05</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D4" s="11">
         <v>0.04</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E4" s="11">
         <v>0.01</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F4" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6155,12 +6029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF48C8B-26AE-4462-AA31-CC1C91D8B963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2967CF90-CE60-4D89-9339-D7C2BBA56671}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6215,16 +6089,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6237,39 +6109,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6280,12 +6141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A46B410-E4BF-4932-90B7-9E7FE7ED9B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A651B-B082-487C-843C-58B876FBF848}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6340,16 +6201,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6362,39 +6221,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6405,12 +6253,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B937D7F2-5EF4-4B23-BBF3-895BE707FF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564CF30E-856B-45FE-99EE-802C35881098}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6451,7 +6299,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6465,16 +6313,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6487,39 +6333,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6530,12 +6365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338920BC-C03A-4896-B374-775260795900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B460C8-A908-4096-A745-7240058DF1F8}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6576,7 +6411,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6590,16 +6425,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6612,39 +6445,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC490F3-54FD-4BB9-9A18-6D912BD3E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D0CBB-FF95-4007-87DC-1EB3351204C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{1BFC2FA0-D503-42CE-A2B7-CD0E873868BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{1BFC2FA0-D503-42CE-A2B7-CD0E873868BB}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$4</definedName>
@@ -53,36 +50,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
-  <si>
-    <t>資訊學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>資科系</t>
   </si>
   <si>
     <t>資科在</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -117,9 +90,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>7A0 資訊學院（院加總 / 院均值）</t>
-  </si>
-  <si>
     <t>703 資訊科學系</t>
   </si>
   <si>
@@ -132,6 +102,60 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊學院</t>
+  </si>
+  <si>
+    <t>ZA0 資訊學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -448,15 +472,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,19 +484,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E99-4045-8A39-F94EDDC7A10B}"/>
+              <c16:uniqueId val="{00000000-A487-4246-BFF5-07DEC840B61C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -515,15 +530,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -533,19 +542,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E99-4045-8A39-F94EDDC7A10B}"/>
+              <c16:uniqueId val="{00000001-A487-4246-BFF5-07DEC840B61C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -582,15 +588,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,19 +600,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3E99-4045-8A39-F94EDDC7A10B}"/>
+              <c16:uniqueId val="{00000002-A487-4246-BFF5-07DEC840B61C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -676,7 +673,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -723,7 +724,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3E99-4045-8A39-F94EDDC7A10B}"/>
+                  <c16:uniqueId val="{00000003-A487-4246-BFF5-07DEC840B61C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -732,7 +733,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -797,15 +802,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,12 +814,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3E99-4045-8A39-F94EDDC7A10B}"/>
+              <c16:uniqueId val="{00000004-A487-4246-BFF5-07DEC840B61C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1111,15 +1107,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,19 +1119,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6BCE-4A4D-8D2A-870842204A8E}"/>
+              <c16:uniqueId val="{00000000-DC35-4AC4-9BF8-1BC7AF19502C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,15 +1165,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1196,19 +1177,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6BCE-4A4D-8D2A-870842204A8E}"/>
+              <c16:uniqueId val="{00000001-DC35-4AC4-9BF8-1BC7AF19502C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1245,15 +1223,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1263,19 +1235,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6BCE-4A4D-8D2A-870842204A8E}"/>
+              <c16:uniqueId val="{00000002-DC35-4AC4-9BF8-1BC7AF19502C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,7 +1308,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1386,7 +1359,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6BCE-4A4D-8D2A-870842204A8E}"/>
+                  <c16:uniqueId val="{00000003-DC35-4AC4-9BF8-1BC7AF19502C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1395,7 +1368,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1460,15 +1437,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1478,12 +1449,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6BCE-4A4D-8D2A-870842204A8E}"/>
+              <c16:uniqueId val="{00000004-DC35-4AC4-9BF8-1BC7AF19502C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1774,15 +1742,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1792,19 +1754,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA55-42F2-B6CC-4D70236B2927}"/>
+              <c16:uniqueId val="{00000000-70AB-4224-BE77-A07C7B12087C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,15 +1800,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1859,19 +1812,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA55-42F2-B6CC-4D70236B2927}"/>
+              <c16:uniqueId val="{00000001-70AB-4224-BE77-A07C7B12087C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1908,15 +1858,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1926,19 +1870,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA55-42F2-B6CC-4D70236B2927}"/>
+              <c16:uniqueId val="{00000002-70AB-4224-BE77-A07C7B12087C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2002,7 +1943,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2049,7 +1994,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BA55-42F2-B6CC-4D70236B2927}"/>
+                  <c16:uniqueId val="{00000003-70AB-4224-BE77-A07C7B12087C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2058,7 +2003,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2123,15 +2072,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2141,12 +2084,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BA55-42F2-B6CC-4D70236B2927}"/>
+              <c16:uniqueId val="{00000004-70AB-4224-BE77-A07C7B12087C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,15 +2377,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2455,19 +2389,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FEC-4574-AEA8-8F452563AAD7}"/>
+              <c16:uniqueId val="{00000000-7A59-4361-9F1D-BC778421F212}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,15 +2435,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2522,19 +2447,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FEC-4574-AEA8-8F452563AAD7}"/>
+              <c16:uniqueId val="{00000001-7A59-4361-9F1D-BC778421F212}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2571,15 +2493,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,19 +2505,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FEC-4574-AEA8-8F452563AAD7}"/>
+              <c16:uniqueId val="{00000002-7A59-4361-9F1D-BC778421F212}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2665,7 +2578,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2712,7 +2629,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2FEC-4574-AEA8-8F452563AAD7}"/>
+                  <c16:uniqueId val="{00000003-7A59-4361-9F1D-BC778421F212}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2721,7 +2638,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2786,15 +2707,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2804,12 +2719,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2FEC-4574-AEA8-8F452563AAD7}"/>
+              <c16:uniqueId val="{00000004-7A59-4361-9F1D-BC778421F212}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3100,15 +3012,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,19 +3024,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D3F-4B44-89C3-5C8435D48A8A}"/>
+              <c16:uniqueId val="{00000000-47AA-47C1-AD88-2C46F5461D6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3167,15 +3070,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3185,19 +3082,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D3F-4B44-89C3-5C8435D48A8A}"/>
+              <c16:uniqueId val="{00000001-47AA-47C1-AD88-2C46F5461D6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3234,15 +3128,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3252,19 +3140,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1D3F-4B44-89C3-5C8435D48A8A}"/>
+              <c16:uniqueId val="{00000002-47AA-47C1-AD88-2C46F5461D6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3328,7 +3213,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3375,7 +3264,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1D3F-4B44-89C3-5C8435D48A8A}"/>
+                  <c16:uniqueId val="{00000003-47AA-47C1-AD88-2C46F5461D6A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3384,7 +3273,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3449,15 +3342,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,12 +3354,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,7 +3364,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1D3F-4B44-89C3-5C8435D48A8A}"/>
+              <c16:uniqueId val="{00000004-47AA-47C1-AD88-2C46F5461D6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3763,15 +3647,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3781,19 +3659,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC77-4A96-B596-716724C0285B}"/>
+              <c16:uniqueId val="{00000000-0F1C-4692-963C-2F8E1B3D5EF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3830,15 +3705,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3848,19 +3717,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC77-4A96-B596-716724C0285B}"/>
+              <c16:uniqueId val="{00000001-0F1C-4692-963C-2F8E1B3D5EF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3897,15 +3763,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3915,19 +3775,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC77-4A96-B596-716724C0285B}"/>
+              <c16:uniqueId val="{00000002-0F1C-4692-963C-2F8E1B3D5EF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3991,7 +3848,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4038,7 +3899,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AC77-4A96-B596-716724C0285B}"/>
+                  <c16:uniqueId val="{00000003-0F1C-4692-963C-2F8E1B3D5EF5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4047,7 +3908,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4112,15 +3977,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4130,12 +3989,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,7 +3999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AC77-4A96-B596-716724C0285B}"/>
+              <c16:uniqueId val="{00000004-0F1C-4692-963C-2F8E1B3D5EF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4426,15 +4282,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4444,19 +4294,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C722-4644-AB46-13D755099C21}"/>
+              <c16:uniqueId val="{00000000-677B-46F8-BA5A-56781A3A2962}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4493,15 +4340,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4511,19 +4352,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C722-4644-AB46-13D755099C21}"/>
+              <c16:uniqueId val="{00000001-677B-46F8-BA5A-56781A3A2962}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4560,15 +4398,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4578,19 +4410,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C722-4644-AB46-13D755099C21}"/>
+              <c16:uniqueId val="{00000002-677B-46F8-BA5A-56781A3A2962}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4654,7 +4483,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4701,7 +4534,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C722-4644-AB46-13D755099C21}"/>
+                  <c16:uniqueId val="{00000003-677B-46F8-BA5A-56781A3A2962}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4710,7 +4543,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4775,15 +4612,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>資科系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>資科在</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4793,12 +4624,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4806,7 +4634,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C722-4644-AB46-13D755099C21}"/>
+              <c16:uniqueId val="{00000004-677B-46F8-BA5A-56781A3A2962}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5035,7 +4863,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBDBAFC-782D-483F-994A-0026334440B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294FF495-CD19-4D5E-AEB2-DAD73E9B18B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +4896,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D667478-FD30-4DC7-A5FE-3DD5A25EE134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BB3B19-4E9F-4101-A00E-FEE031A816B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +4929,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8D2E40-E7DD-4C11-9B02-2621FB78FCCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD76A281-C802-45AF-AB35-6A7C423F463D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +4962,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1B8B1F-D577-4BCB-BC8E-DDA72FAECBC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE48F3CB-199B-48EA-8DD9-8F6749141A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,7 +4995,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788215B3-CC0B-4306-A9AA-E8C39089ADD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39400779-6693-4D16-87FD-31B4AC8E2E12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,7 +5028,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C9BFC2-1C7B-4754-B081-260DC8381462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8E3498-4C08-44FF-BD10-8149D1DADFD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5061,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB936844-0B82-4347-B812-02A77F26E7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A248CB5C-962C-40F1-B2D6-4DD6F9291BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,72 +5082,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5617,88 +5379,141 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8979D7B4-0C5A-4444-A13F-A43AB26E5EE8}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEE7E43-2B86-4EC4-AC40-2EA386DAA3DD}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{132F3BD7-E094-4CB4-AF1D-14CD2D33005F}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{A92964E3-9BE9-46CB-B85D-43680DFA8524}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5D026277-DEE6-4E01-9023-E5D1AC5C16A6}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{9A851883-DB00-42E9-9E0E-DEB5C5BC3F8F}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{A502642F-C7C9-448C-928E-856BF902C571}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{B8F315A8-A5C8-48CC-8B38-4DB797860F40}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{318E1B3E-CC63-49F9-8D91-0AE9079BA36F}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{297270C0-C927-4F6F-BCE0-34C5E4A10E12}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{075D2586-3340-4541-8BA3-7DD0FC0FDB0B}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{6DA24339-BCEB-4154-8697-D0906009A496}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{54D0B21A-C4FF-4320-A907-83EF0407FCED}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{418AB567-3EE2-4B3E-B016-4B1224BB4A7D}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D5B6CDF7-3A4D-4780-9A7D-729804F4138D}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{6FCA67E3-02E1-49CE-876D-ADB555F0CA6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA93C3F-AA55-408F-AE61-815BA14DE179}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5DD9EF-FEFA-40EB-9298-054605692989}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5711,92 +5526,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5805,12 +5643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC605DED-2D6D-484C-907F-CFEFED3B0BED}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F116811-1B7E-461D-8646-17EBECED6072}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5823,92 +5661,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5917,12 +5778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3730CF5F-AD66-40ED-A02F-382F170CE957}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9518F9-635E-4A9C-A734-4F90A03623F2}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5935,92 +5796,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6029,12 +5913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2967CF90-CE60-4D89-9339-D7C2BBA56671}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CCF49-835C-4D2E-873A-E17A10D71B62}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6047,92 +5931,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6141,12 +6048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A651B-B082-487C-843C-58B876FBF848}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC936591-99B4-45CF-9745-8BD886A5F920}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6159,92 +6066,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6253,12 +6183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564CF30E-856B-45FE-99EE-802C35881098}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87ACC1-50C2-4A15-B695-450892FC57E7}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6271,92 +6201,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6365,12 +6318,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B460C8-A908-4096-A745-7240058DF1F8}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5E81D0-8FF1-418D-8520-885405D66D66}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6383,92 +6336,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D0CBB-FF95-4007-87DC-1EB3351204C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B08237-A429-477E-A9E5-62592D4575CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{1BFC2FA0-D503-42CE-A2B7-CD0E873868BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1586AC3F-F281-477B-A673-05917043C830}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -50,64 +50,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
-    <t>資科系</t>
+    <t>ZA0 資訊學院（院加總 / 院均值）</t>
   </si>
   <si>
-    <t>資科在</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>資訊學院</t>
   </si>
   <si>
     <t>703 資訊科學系</t>
+  </si>
+  <si>
+    <t>資科系</t>
   </si>
   <si>
     <t>971 資訊科學系碩士在職專班</t>
   </si>
   <si>
     <t>資科在</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>資訊學院</t>
-  </si>
-  <si>
-    <t>ZA0 資訊學院（院加總 / 院均值）</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -152,21 +112,98 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>資科在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為7.87%，無低於（或等於）院三年均值者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為0%，高於院三年均值者計有1個系，為資科系14.29%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為35,168，無高於（或等於）院三年均值者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為2.83，無低於（或等於）院三年均值者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為13.68，高於院三年均值者計有1個系，為資科系13.83。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -349,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,15 +421,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{125FE2FD-2C39-4632-8151-75D825229B9C}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{602C7947-D368-460F-8C0B-E3D2A6773738}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{F6887EBB-5691-4AFA-B98B-C7652FBDB41B}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{5E08BD10-217A-42BA-9E6F-31EC90DD7183}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{9ECDE090-CC5B-40BD-9F14-FEE9F8FC5389}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{812CE044-19C4-4BB6-ACA6-2607707100AD}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +521,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -483,9 +535,12 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.17780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -493,7 +548,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A487-4246-BFF5-07DEC840B61C}"/>
+              <c16:uniqueId val="{00000000-E532-40B5-9B7F-481560A0D68F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -530,8 +585,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -541,9 +599,12 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -551,7 +612,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A487-4246-BFF5-07DEC840B61C}"/>
+              <c16:uniqueId val="{00000001-E532-40B5-9B7F-481560A0D68F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -588,8 +649,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -599,17 +663,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.8700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A487-4246-BFF5-07DEC840B61C}"/>
+              <c16:uniqueId val="{00000002-E532-40B5-9B7F-481560A0D68F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -724,7 +791,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A487-4246-BFF5-07DEC840B61C}"/>
+                  <c16:uniqueId val="{00000003-E532-40B5-9B7F-481560A0D68F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -802,8 +869,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -813,10 +883,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +897,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A487-4246-BFF5-07DEC840B61C}"/>
+              <c16:uniqueId val="{00000004-E532-40B5-9B7F-481560A0D68F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,7 +997,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1107,8 +1180,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1118,9 +1194,12 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1128,7 +1207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC35-4AC4-9BF8-1BC7AF19502C}"/>
+              <c16:uniqueId val="{00000000-05A0-4145-9EAF-FD7BE5A42C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1165,8 +1244,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1176,9 +1258,12 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1186,7 +1271,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC35-4AC4-9BF8-1BC7AF19502C}"/>
+              <c16:uniqueId val="{00000001-05A0-4145-9EAF-FD7BE5A42C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1223,8 +1308,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1234,9 +1322,12 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1244,7 +1335,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC35-4AC4-9BF8-1BC7AF19502C}"/>
+              <c16:uniqueId val="{00000002-05A0-4145-9EAF-FD7BE5A42C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1359,7 +1450,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DC35-4AC4-9BF8-1BC7AF19502C}"/>
+                  <c16:uniqueId val="{00000003-05A0-4145-9EAF-FD7BE5A42C5A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1437,8 +1528,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1448,9 +1542,12 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1459,7 +1556,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DC35-4AC4-9BF8-1BC7AF19502C}"/>
+              <c16:uniqueId val="{00000004-05A0-4145-9EAF-FD7BE5A42C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,7 +1656,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1742,8 +1839,14 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資科在</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1753,9 +1856,15 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>33863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1763,7 +1872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70AB-4224-BE77-A07C7B12087C}"/>
+              <c16:uniqueId val="{00000000-6A84-4C93-8292-7CF956145F74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1800,8 +1909,14 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資科在</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1811,9 +1926,15 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>32318.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1821,7 +1942,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-70AB-4224-BE77-A07C7B12087C}"/>
+              <c16:uniqueId val="{00000001-6A84-4C93-8292-7CF956145F74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1858,8 +1979,14 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資科在</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1869,17 +1996,23 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>35168.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0;\-#,###;0">
+                  <c:v>35168.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-70AB-4224-BE77-A07C7B12087C}"/>
+              <c16:uniqueId val="{00000002-6A84-4C93-8292-7CF956145F74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1994,7 +2127,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-70AB-4224-BE77-A07C7B12087C}"/>
+                  <c16:uniqueId val="{00000003-6A84-4C93-8292-7CF956145F74}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2072,8 +2205,14 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資科在</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2083,10 +2222,16 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33861.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35168.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-70AB-4224-BE77-A07C7B12087C}"/>
+              <c16:uniqueId val="{00000004-6A84-4C93-8292-7CF956145F74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2194,7 +2339,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2377,8 +2522,11 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2388,9 +2536,12 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2398,7 +2549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A59-4361-9F1D-BC778421F212}"/>
+              <c16:uniqueId val="{00000000-404A-4D28-9FCD-109A3FFA5A55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2435,8 +2586,11 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2446,9 +2600,12 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2456,7 +2613,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A59-4361-9F1D-BC778421F212}"/>
+              <c16:uniqueId val="{00000001-404A-4D28-9FCD-109A3FFA5A55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2493,8 +2650,11 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2504,17 +2664,20 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A59-4361-9F1D-BC778421F212}"/>
+              <c16:uniqueId val="{00000002-404A-4D28-9FCD-109A3FFA5A55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2629,7 +2792,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7A59-4361-9F1D-BC778421F212}"/>
+                  <c16:uniqueId val="{00000003-404A-4D28-9FCD-109A3FFA5A55}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2707,8 +2870,11 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2718,10 +2884,13 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,7 +2898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A59-4361-9F1D-BC778421F212}"/>
+              <c16:uniqueId val="{00000004-404A-4D28-9FCD-109A3FFA5A55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2829,7 +2998,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3012,8 +3181,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3023,9 +3195,12 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>15.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3033,7 +3208,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47AA-47C1-AD88-2C46F5461D6A}"/>
+              <c16:uniqueId val="{00000000-2156-4A1C-AD4C-7586AA356FF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3070,8 +3245,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3081,9 +3259,12 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3091,7 +3272,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-47AA-47C1-AD88-2C46F5461D6A}"/>
+              <c16:uniqueId val="{00000001-2156-4A1C-AD4C-7586AA356FF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3128,8 +3309,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3139,17 +3323,20 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-47AA-47C1-AD88-2C46F5461D6A}"/>
+              <c16:uniqueId val="{00000002-2156-4A1C-AD4C-7586AA356FF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3264,7 +3451,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-47AA-47C1-AD88-2C46F5461D6A}"/>
+                  <c16:uniqueId val="{00000003-2156-4A1C-AD4C-7586AA356FF2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3342,8 +3529,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3353,10 +3543,13 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-47AA-47C1-AD88-2C46F5461D6A}"/>
+              <c16:uniqueId val="{00000004-2156-4A1C-AD4C-7586AA356FF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3464,7 +3657,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3647,8 +3840,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3658,9 +3854,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3668,7 +3867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F1C-4692-963C-2F8E1B3D5EF5}"/>
+              <c16:uniqueId val="{00000000-6A97-4A8B-B104-8C7BB8A3996B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3705,8 +3904,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3716,9 +3918,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3726,7 +3931,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F1C-4692-963C-2F8E1B3D5EF5}"/>
+              <c16:uniqueId val="{00000001-6A97-4A8B-B104-8C7BB8A3996B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3763,8 +3968,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3774,9 +3982,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3784,7 +3995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F1C-4692-963C-2F8E1B3D5EF5}"/>
+              <c16:uniqueId val="{00000002-6A97-4A8B-B104-8C7BB8A3996B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3899,7 +4110,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0F1C-4692-963C-2F8E1B3D5EF5}"/>
+                  <c16:uniqueId val="{00000003-6A97-4A8B-B104-8C7BB8A3996B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3977,8 +4188,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3988,9 +4202,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3999,7 +4216,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0F1C-4692-963C-2F8E1B3D5EF5}"/>
+              <c16:uniqueId val="{00000004-6A97-4A8B-B104-8C7BB8A3996B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4099,7 +4316,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4282,8 +4499,11 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4293,9 +4513,12 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4303,7 +4526,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-677B-46F8-BA5A-56781A3A2962}"/>
+              <c16:uniqueId val="{00000000-248F-40D8-8AA4-8DADA6204560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4340,8 +4563,11 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4351,9 +4577,12 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4361,7 +4590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-677B-46F8-BA5A-56781A3A2962}"/>
+              <c16:uniqueId val="{00000001-248F-40D8-8AA4-8DADA6204560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4398,8 +4627,11 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4409,9 +4641,12 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4419,7 +4654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-677B-46F8-BA5A-56781A3A2962}"/>
+              <c16:uniqueId val="{00000002-248F-40D8-8AA4-8DADA6204560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4534,7 +4769,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-677B-46F8-BA5A-56781A3A2962}"/>
+                  <c16:uniqueId val="{00000003-248F-40D8-8AA4-8DADA6204560}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4612,8 +4847,11 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>資科系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4623,9 +4861,12 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4634,7 +4875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-677B-46F8-BA5A-56781A3A2962}"/>
+              <c16:uniqueId val="{00000004-248F-40D8-8AA4-8DADA6204560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4734,7 +4975,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4863,7 +5104,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294FF495-CD19-4D5E-AEB2-DAD73E9B18B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5B506C-22B3-4EDA-B0EE-C02524FCEBB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +5137,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BB3B19-4E9F-4101-A00E-FEE031A816B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCE7553-8D86-4E3E-9C83-637F290E4EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +5170,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD76A281-C802-45AF-AB35-6A7C423F463D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6652372-11BA-4F5E-A914-434004961AEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5203,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE48F3CB-199B-48EA-8DD9-8F6749141A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DF907-D0AB-409B-A307-EDFAB8A0D1DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +5236,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39400779-6693-4D16-87FD-31B4AC8E2E12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCF28E0-4AD2-4DE1-82B7-3207ACA3AF06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5269,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8E3498-4C08-44FF-BD10-8149D1DADFD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436CD78E-3932-4D43-A169-23C1E2E11342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5302,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A248CB5C-962C-40F1-B2D6-4DD6F9291BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4195487F-16C9-49C6-A0C6-F5A0B28DEA41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5629,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8979D7B4-0C5A-4444-A13F-A43AB26E5EE8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{A3805628-A07E-4991-9067-7368FC24E595}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5400,9 +5641,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEE7E43-2B86-4EC4-AC40-2EA386DAA3DD}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D848C3-2A6C-43B9-A39B-99460259D62A}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5416,223 +5657,309 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{297270C0-C927-4F6F-BCE0-34C5E4A10E12}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{075D2586-3340-4541-8BA3-7DD0FC0FDB0B}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{6DA24339-BCEB-4154-8697-D0906009A496}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{54D0B21A-C4FF-4320-A907-83EF0407FCED}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{418AB567-3EE2-4B3E-B016-4B1224BB4A7D}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D5B6CDF7-3A4D-4780-9A7D-729804F4138D}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{6FCA67E3-02E1-49CE-876D-ADB555F0CA6F}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{CE9134F8-CBBB-47FB-A8DE-FD2477A5872A}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{4736F704-9A8B-455D-A5AD-09F2DCF736A4}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{BF4A526A-BF3C-462D-9843-F44FBE855F23}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{734025C3-3366-4E45-A157-E0B27BDB6536}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{63BE9CBB-ED2B-428C-BBE9-4CD72E9B65EC}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{2037A269-62EB-402D-BBF0-373067C37423}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{B8246238-4741-41C7-BEB6-5B20489869CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5DD9EF-FEFA-40EB-9298-054605692989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F935D-DB8A-4D42-BD62-0DC79FB6D8E8}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.1168</v>
+      </c>
+      <c r="D2" s="13">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.127</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.17780000000000001</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5643,131 +5970,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F116811-1B7E-461D-8646-17EBECED6072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF10CAC-9074-41DE-B0B6-DC1D57C484DD}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5778,131 +6108,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9518F9-635E-4A9C-A734-4F90A03623F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F262874-9009-4795-8285-B62A2710E44C}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>33861.74</v>
+      </c>
+      <c r="D2" s="11">
+        <v>35168.19</v>
+      </c>
+      <c r="E2" s="11">
+        <v>32318.58</v>
+      </c>
+      <c r="F2" s="11">
+        <v>33863</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>35168.19</v>
+      </c>
+      <c r="D4" s="11">
+        <v>35168.19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5913,131 +6243,132 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CCF49-835C-4D2E-873A-E17A10D71B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B3E564-960C-4F96-9BD5-4F8708D4081A}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3.03</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.07</v>
+      </c>
+      <c r="F2" s="15">
+        <v>3.2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6048,131 +6379,131 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC936591-99B4-45CF-9745-8BD886A5F920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F23101B-8190-4317-9ED3-E8AE6BAC6A36}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>13.83</v>
+      </c>
+      <c r="D2" s="15">
+        <v>13.68</v>
+      </c>
+      <c r="E2" s="15">
+        <v>12.67</v>
+      </c>
+      <c r="F2" s="15">
+        <v>15.19</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15">
+        <v>13.68</v>
+      </c>
+      <c r="D3" s="15">
+        <v>13.68</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6183,131 +6514,131 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87ACC1-50C2-4A15-B695-450892FC57E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E149AFEC-7D7D-4B19-B422-BF202D5B9862}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6318,131 +6649,132 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5E81D0-8FF1-418D-8520-885405D66D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C8B5AB-B3D8-416D-8584-09CE986A8854}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B08237-A429-477E-A9E5-62592D4575CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E54E9C-2D1A-4C22-AB4D-C07259C4F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1586AC3F-F281-477B-A673-05917043C830}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{1586AC3F-F281-477B-A673-05917043C830}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -158,38 +158,31 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為7.87%，無低於（或等於）院三年均值者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為0%，高於院三年均值者計有1個系，為資科系14.29%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為35,168，無高於（或等於）院三年均值者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為2.83，無低於（或等於）院三年均值者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為13.68，高於院三年均值者計有1個系，為資科系13.83。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,10 +191,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -421,9 +414,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,6 +424,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E532-40B5-9B7F-481560A0D68F}"/>
+              <c16:uniqueId val="{00000000-8D1C-4F77-B3F0-A60A38F0EA04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -612,7 +605,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E532-40B5-9B7F-481560A0D68F}"/>
+              <c16:uniqueId val="{00000001-8D1C-4F77-B3F0-A60A38F0EA04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -676,7 +669,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E532-40B5-9B7F-481560A0D68F}"/>
+              <c16:uniqueId val="{00000002-8D1C-4F77-B3F0-A60A38F0EA04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -734,7 +727,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -789,9 +782,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E532-40B5-9B7F-481560A0D68F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -897,7 +887,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E532-40B5-9B7F-481560A0D68F}"/>
+              <c16:uniqueId val="{00000004-8D1C-4F77-B3F0-A60A38F0EA04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1207,7 +1197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05A0-4145-9EAF-FD7BE5A42C5A}"/>
+              <c16:uniqueId val="{00000000-AE23-495C-A683-D91076382BB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,7 +1261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-05A0-4145-9EAF-FD7BE5A42C5A}"/>
+              <c16:uniqueId val="{00000001-AE23-495C-A683-D91076382BB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,7 +1325,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-05A0-4145-9EAF-FD7BE5A42C5A}"/>
+              <c16:uniqueId val="{00000002-AE23-495C-A683-D91076382BB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,7 +1383,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1448,9 +1438,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-05A0-4145-9EAF-FD7BE5A42C5A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1556,7 +1543,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-05A0-4145-9EAF-FD7BE5A42C5A}"/>
+              <c16:uniqueId val="{00000004-AE23-495C-A683-D91076382BB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1872,7 +1859,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A84-4C93-8292-7CF956145F74}"/>
+              <c16:uniqueId val="{00000000-CEED-482C-B415-C9724AEE0B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1942,7 +1929,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A84-4C93-8292-7CF956145F74}"/>
+              <c16:uniqueId val="{00000001-CEED-482C-B415-C9724AEE0B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2012,7 +1999,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A84-4C93-8292-7CF956145F74}"/>
+              <c16:uniqueId val="{00000002-CEED-482C-B415-C9724AEE0B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2070,7 +2057,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2125,9 +2112,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6A84-4C93-8292-7CF956145F74}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2239,7 +2223,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A84-4C93-8292-7CF956145F74}"/>
+              <c16:uniqueId val="{00000004-CEED-482C-B415-C9724AEE0B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2549,7 +2533,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-404A-4D28-9FCD-109A3FFA5A55}"/>
+              <c16:uniqueId val="{00000000-19F6-4725-8B60-5B96B1302631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2613,7 +2597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-404A-4D28-9FCD-109A3FFA5A55}"/>
+              <c16:uniqueId val="{00000001-19F6-4725-8B60-5B96B1302631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2677,7 +2661,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-404A-4D28-9FCD-109A3FFA5A55}"/>
+              <c16:uniqueId val="{00000002-19F6-4725-8B60-5B96B1302631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2735,7 +2719,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2790,9 +2774,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-404A-4D28-9FCD-109A3FFA5A55}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2898,7 +2879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-404A-4D28-9FCD-109A3FFA5A55}"/>
+              <c16:uniqueId val="{00000004-19F6-4725-8B60-5B96B1302631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3208,7 +3189,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2156-4A1C-AD4C-7586AA356FF2}"/>
+              <c16:uniqueId val="{00000000-262B-4AF7-8F21-5C1F761E73DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3272,7 +3253,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2156-4A1C-AD4C-7586AA356FF2}"/>
+              <c16:uniqueId val="{00000001-262B-4AF7-8F21-5C1F761E73DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3336,7 +3317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2156-4A1C-AD4C-7586AA356FF2}"/>
+              <c16:uniqueId val="{00000002-262B-4AF7-8F21-5C1F761E73DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3394,7 +3375,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3449,9 +3430,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2156-4A1C-AD4C-7586AA356FF2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3557,7 +3535,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2156-4A1C-AD4C-7586AA356FF2}"/>
+              <c16:uniqueId val="{00000004-262B-4AF7-8F21-5C1F761E73DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3867,7 +3845,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A97-4A8B-B104-8C7BB8A3996B}"/>
+              <c16:uniqueId val="{00000000-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3931,7 +3909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A97-4A8B-B104-8C7BB8A3996B}"/>
+              <c16:uniqueId val="{00000001-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3995,7 +3973,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A97-4A8B-B104-8C7BB8A3996B}"/>
+              <c16:uniqueId val="{00000002-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4053,7 +4031,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4108,9 +4086,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6A97-4A8B-B104-8C7BB8A3996B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4216,7 +4191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A97-4A8B-B104-8C7BB8A3996B}"/>
+              <c16:uniqueId val="{00000004-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4526,7 +4501,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-248F-40D8-8AA4-8DADA6204560}"/>
+              <c16:uniqueId val="{00000000-3A91-4EC7-9C4B-4D0663323EB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4590,7 +4565,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-248F-40D8-8AA4-8DADA6204560}"/>
+              <c16:uniqueId val="{00000001-3A91-4EC7-9C4B-4D0663323EB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4654,7 +4629,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-248F-40D8-8AA4-8DADA6204560}"/>
+              <c16:uniqueId val="{00000002-3A91-4EC7-9C4B-4D0663323EB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4712,7 +4687,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4767,9 +4742,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-248F-40D8-8AA4-8DADA6204560}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4875,7 +4847,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-248F-40D8-8AA4-8DADA6204560}"/>
+              <c16:uniqueId val="{00000004-3A91-4EC7-9C4B-4D0663323EB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5104,7 +5076,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5B506C-22B3-4EDA-B0EE-C02524FCEBB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80603A7-0554-4C50-839C-B249D5EE213C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,7 +5109,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCE7553-8D86-4E3E-9C83-637F290E4EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68729EAC-6A34-4B61-97B5-8EA00B1A83F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5170,7 +5142,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6652372-11BA-4F5E-A914-434004961AEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1416CB-F148-4AB7-917A-FC056160B565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5203,7 +5175,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DF907-D0AB-409B-A307-EDFAB8A0D1DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEB100-1F55-48F1-AA08-8BA29CC930E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5236,7 +5208,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCF28E0-4AD2-4DE1-82B7-3207ACA3AF06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5AEA2E-26B2-4554-A9AB-F812AAF30032}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5269,7 +5241,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436CD78E-3932-4D43-A169-23C1E2E11342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A51AEFC-4227-4F45-B332-262119623D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5302,7 +5274,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4195487F-16C9-49C6-A0C6-F5A0B28DEA41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D8B295-6DB8-4803-B036-7AD33D0ACBC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5684,10 +5656,10 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5698,10 +5670,10 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5712,10 +5684,10 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
     </row>
@@ -5726,10 +5698,10 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5738,12 +5710,12 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
     </row>
@@ -5754,10 +5726,10 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5768,10 +5740,10 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5780,12 +5752,12 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
     </row>
@@ -5796,10 +5768,10 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5810,30 +5782,30 @@
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{CE9134F8-CBBB-47FB-A8DE-FD2477A5872A}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{4736F704-9A8B-455D-A5AD-09F2DCF736A4}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{BF4A526A-BF3C-462D-9843-F44FBE855F23}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{734025C3-3366-4E45-A157-E0B27BDB6536}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{63BE9CBB-ED2B-428C-BBE9-4CD72E9B65EC}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{2037A269-62EB-402D-BBF0-373067C37423}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{B8246238-4741-41C7-BEB6-5B20489869CB}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{A9F454EA-0B7C-40B7-B0DD-ECD9D085648E}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{1048639C-5704-4C34-BF89-E1CC1C5B2D11}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{50C63AE7-C491-4C54-AD1B-265B3DE4959A}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{09F1D6B9-ED86-4E95-B07E-B041EE92AF3E}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{FEBD1FE4-BBBD-4941-B7D0-EDB82C42581C}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{0D310160-4B11-4E37-A48E-567ABB3A1C80}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{B401642C-E569-4169-9758-06E2CD58D0D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F935D-DB8A-4D42-BD62-0DC79FB6D8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6AD2FC-FC73-47DA-9790-03E13770BF84}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5846,8 +5818,8 @@
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -5886,16 +5858,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.1168</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.127</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.17780000000000001</v>
       </c>
       <c r="G2" s="9">
@@ -5909,16 +5881,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -5932,16 +5904,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -5959,7 +5931,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5970,7 +5942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF10CAC-9074-41DE-B0B6-DC1D57C484DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F05B05-1F96-4BDE-9307-B46CA438785E}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5982,10 +5954,10 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6024,16 +5996,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.1429</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.5</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -6047,16 +6019,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6070,16 +6042,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6097,7 +6069,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6108,7 +6080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F262874-9009-4795-8285-B62A2710E44C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6A4BEE-90B8-478E-A030-46493AB91D8F}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6120,7 +6092,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6159,16 +6131,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>33861.74</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>35168.19</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>32318.58</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>33863</v>
       </c>
       <c r="G2" s="9">
@@ -6182,16 +6154,16 @@
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6205,16 +6177,16 @@
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>35168.19</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>35168.19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9">
@@ -6243,7 +6215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B3E564-960C-4F96-9BD5-4F8708D4081A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BD3B7-2044-4233-B399-7D473744E00B}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6255,8 +6227,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6295,16 +6266,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3.03</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.83</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3.07</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>3.2</v>
       </c>
       <c r="G2" s="9">
@@ -6318,16 +6289,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.83</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.83</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6341,16 +6312,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6368,7 +6339,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6379,7 +6350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F23101B-8190-4317-9ED3-E8AE6BAC6A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18657A38-CB87-417B-8032-45537B15BD36}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6391,7 +6362,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6430,16 +6402,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>13.83</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>13.68</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>12.67</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>15.19</v>
       </c>
       <c r="G2" s="9">
@@ -6453,16 +6425,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>13.68</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>13.68</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6476,16 +6448,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6503,7 +6475,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6514,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E149AFEC-7D7D-4B19-B422-BF202D5B9862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1304157-883E-4072-B7B0-F51B7D03C0CC}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6526,7 +6498,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6565,16 +6537,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -6588,16 +6560,16 @@
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6611,16 +6583,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6638,7 +6610,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6649,7 +6621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C8B5AB-B3D8-416D-8584-09CE986A8854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB65A6-24FF-4371-A6E2-E5F5063728B8}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6661,8 +6633,10 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6701,16 +6675,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.33</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -6724,16 +6698,16 @@
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6747,16 +6721,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6774,7 +6748,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/資訊學院.xlsx
+++ b/test/1. 各院彙整資料/資訊學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E54E9C-2D1A-4C22-AB4D-C07259C4F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF17087C-248B-42A8-83AD-21FBCA3BC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{1586AC3F-F281-477B-A673-05917043C830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{1586AC3F-F281-477B-A673-05917043C830}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -541,7 +541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D1C-4F77-B3F0-A60A38F0EA04}"/>
+              <c16:uniqueId val="{00000000-38CA-45B1-828C-1D00A7DCCEAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -605,7 +605,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D1C-4F77-B3F0-A60A38F0EA04}"/>
+              <c16:uniqueId val="{00000001-38CA-45B1-828C-1D00A7DCCEAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -669,7 +669,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8D1C-4F77-B3F0-A60A38F0EA04}"/>
+              <c16:uniqueId val="{00000002-38CA-45B1-828C-1D00A7DCCEAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -887,7 +887,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8D1C-4F77-B3F0-A60A38F0EA04}"/>
+              <c16:uniqueId val="{00000004-38CA-45B1-828C-1D00A7DCCEAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1197,7 +1197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE23-495C-A683-D91076382BB2}"/>
+              <c16:uniqueId val="{00000000-D493-4DF8-9DA2-3F0B07D82B6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +1261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE23-495C-A683-D91076382BB2}"/>
+              <c16:uniqueId val="{00000001-D493-4DF8-9DA2-3F0B07D82B6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,7 +1325,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE23-495C-A683-D91076382BB2}"/>
+              <c16:uniqueId val="{00000002-D493-4DF8-9DA2-3F0B07D82B6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1543,7 +1543,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE23-495C-A683-D91076382BB2}"/>
+              <c16:uniqueId val="{00000004-D493-4DF8-9DA2-3F0B07D82B6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,7 +1859,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEED-482C-B415-C9724AEE0B0C}"/>
+              <c16:uniqueId val="{00000000-D682-4356-B625-D3C1C52BA670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1929,7 +1929,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEED-482C-B415-C9724AEE0B0C}"/>
+              <c16:uniqueId val="{00000001-D682-4356-B625-D3C1C52BA670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1999,7 +1999,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CEED-482C-B415-C9724AEE0B0C}"/>
+              <c16:uniqueId val="{00000002-D682-4356-B625-D3C1C52BA670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2223,7 +2223,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CEED-482C-B415-C9724AEE0B0C}"/>
+              <c16:uniqueId val="{00000004-D682-4356-B625-D3C1C52BA670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2533,7 +2533,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19F6-4725-8B60-5B96B1302631}"/>
+              <c16:uniqueId val="{00000000-A50A-482D-9125-5C8A05B0C63A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2597,7 +2597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-19F6-4725-8B60-5B96B1302631}"/>
+              <c16:uniqueId val="{00000001-A50A-482D-9125-5C8A05B0C63A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2661,7 +2661,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-19F6-4725-8B60-5B96B1302631}"/>
+              <c16:uniqueId val="{00000002-A50A-482D-9125-5C8A05B0C63A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2879,7 +2879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-19F6-4725-8B60-5B96B1302631}"/>
+              <c16:uniqueId val="{00000004-A50A-482D-9125-5C8A05B0C63A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3189,7 +3189,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-262B-4AF7-8F21-5C1F761E73DE}"/>
+              <c16:uniqueId val="{00000000-5282-47AB-92CC-A314762B5C06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3253,7 +3253,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-262B-4AF7-8F21-5C1F761E73DE}"/>
+              <c16:uniqueId val="{00000001-5282-47AB-92CC-A314762B5C06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3317,7 +3317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-262B-4AF7-8F21-5C1F761E73DE}"/>
+              <c16:uniqueId val="{00000002-5282-47AB-92CC-A314762B5C06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3535,7 +3535,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-262B-4AF7-8F21-5C1F761E73DE}"/>
+              <c16:uniqueId val="{00000004-5282-47AB-92CC-A314762B5C06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3845,7 +3845,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
+              <c16:uniqueId val="{00000000-AC92-4735-A6C6-1A5616A76801}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3909,7 +3909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
+              <c16:uniqueId val="{00000001-AC92-4735-A6C6-1A5616A76801}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3973,7 +3973,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
+              <c16:uniqueId val="{00000002-AC92-4735-A6C6-1A5616A76801}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4191,7 +4191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-95A5-4F5D-ACB8-A6AE6FBA2F05}"/>
+              <c16:uniqueId val="{00000004-AC92-4735-A6C6-1A5616A76801}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4501,7 +4501,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A91-4EC7-9C4B-4D0663323EB4}"/>
+              <c16:uniqueId val="{00000000-A202-4E28-A7C5-71A8C35FBEDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4565,7 +4565,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A91-4EC7-9C4B-4D0663323EB4}"/>
+              <c16:uniqueId val="{00000001-A202-4E28-A7C5-71A8C35FBEDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4629,7 +4629,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A91-4EC7-9C4B-4D0663323EB4}"/>
+              <c16:uniqueId val="{00000002-A202-4E28-A7C5-71A8C35FBEDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4847,7 +4847,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3A91-4EC7-9C4B-4D0663323EB4}"/>
+              <c16:uniqueId val="{00000004-A202-4E28-A7C5-71A8C35FBEDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5076,7 +5076,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80603A7-0554-4C50-839C-B249D5EE213C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD2E65-1EE2-4708-A04E-E02C83570657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5109,7 +5109,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68729EAC-6A34-4B61-97B5-8EA00B1A83F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9C944E-A4AD-45ED-A851-CB20FC3E55C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5142,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1416CB-F148-4AB7-917A-FC056160B565}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EBDD56-C028-4CEC-9A32-EF93E3D68255}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5175,7 +5175,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEB100-1F55-48F1-AA08-8BA29CC930E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8F4305-3188-4892-B788-BB9270C17F80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,7 +5208,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5AEA2E-26B2-4554-A9AB-F812AAF30032}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31CB0AD-40BD-415F-B04F-9103E347DC48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5241,7 +5241,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A51AEFC-4227-4F45-B332-262119623D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD94235-7048-4C33-8D2F-8180446DF3C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,7 +5274,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D8B295-6DB8-4803-B036-7AD33D0ACBC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DC40EB-85D8-4515-8D14-5FB55A934503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,22 +5792,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{A9F454EA-0B7C-40B7-B0DD-ECD9D085648E}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{1048639C-5704-4C34-BF89-E1CC1C5B2D11}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{50C63AE7-C491-4C54-AD1B-265B3DE4959A}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{09F1D6B9-ED86-4E95-B07E-B041EE92AF3E}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{FEBD1FE4-BBBD-4941-B7D0-EDB82C42581C}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{0D310160-4B11-4E37-A48E-567ABB3A1C80}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{B401642C-E569-4169-9758-06E2CD58D0D5}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DC8545A7-E8D7-461C-AC86-898D1CCA7BCA}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{D3EBF3CC-F80B-44F9-A7EF-32FA793C5C4F}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{1A8D1188-999E-48F0-91DE-B4E15B3F8E8A}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{A47A978C-A262-47A2-94CF-AE6343A6CD87}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{4C15CD9E-81E7-4ABA-BD69-C51367798213}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{12358E28-A987-4016-BA26-8C7EDAE2B320}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{B9E7E8F8-E8E3-4EEB-9792-79171359F95C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6AD2FC-FC73-47DA-9790-03E13770BF84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F9364B-DB49-4CC7-BAEA-9D0A053DFF01}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -5825,7 +5825,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5847,11 +5847,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5942,9 +5942,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F05B05-1F96-4BDE-9307-B46CA438785E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F1CE7A-C89B-4996-937D-F78B049B4C89}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -5963,7 +5963,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5985,11 +5985,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6080,9 +6080,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6A4BEE-90B8-478E-A030-46493AB91D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DCDBE-BEC0-462D-9A06-4F7D596838F2}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6098,7 +6098,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6120,11 +6120,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6215,9 +6215,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BD3B7-2044-4233-B399-7D473744E00B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC26FB3-DD9A-4FB2-B3FF-3888D4542B97}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6233,7 +6233,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6255,11 +6255,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6350,9 +6350,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18657A38-CB87-417B-8032-45537B15BD36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D48F19-3019-4AE4-B770-A340B223D986}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6369,7 +6369,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6391,11 +6391,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6486,9 +6486,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1304157-883E-4072-B7B0-F51B7D03C0CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21AA935-320D-48E0-AD34-0E8E7581BD26}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6504,7 +6504,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6526,11 +6526,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6621,9 +6621,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB65A6-24FF-4371-A6E2-E5F5063728B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AEE2B6-74DD-4EE5-8F6E-FF22B6B48CE9}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6642,7 +6642,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6664,11 +6664,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
